--- a/excel_files/quiz_data.xlsx
+++ b/excel_files/quiz_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t>Table 1</t>
   </si>
@@ -34,7 +34,7 @@
     <t>A4</t>
   </si>
   <si>
-    <t>Ich nehme den Regenschirm, _____ es regnet.</t>
+    <t>Ich nehme den Regenschirm,   _____ es regnet.</t>
   </si>
   <si>
     <t>weil</t>
@@ -46,7 +46,7 @@
     <t>darum</t>
   </si>
   <si>
-    <t xml:space="preserve">Er hat im Park eine neue Freundin _____ . </t>
+    <t xml:space="preserve">Er hat im Park eine neue Freundin  _____ . </t>
   </si>
   <si>
     <t xml:space="preserve">kennen gelernt   </t>
@@ -58,7 +58,7 @@
     <t>lernen gekennt</t>
   </si>
   <si>
-    <t>Er kam zu spät und hat den Bus ______ .</t>
+    <t>Er kam zu spät und hat den Bus  _____ .</t>
   </si>
   <si>
     <t xml:space="preserve"> verpasst</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">verpassen    </t>
   </si>
   <si>
-    <t>Die Mutter von meinem Mann ist meine _____ .</t>
+    <t>Die Mutter von meinem Mann ist meine  _____ .</t>
   </si>
   <si>
     <t>Schwiegermutter</t>
@@ -79,7 +79,10 @@
     <t xml:space="preserve">Schwägerin   </t>
   </si>
   <si>
-    <t>Peter, bringe bitte den Müll _____ .</t>
+    <t>Stiefmutter</t>
+  </si>
+  <si>
+    <t>Peter, bringe bitte den Müll  _____</t>
   </si>
   <si>
     <t xml:space="preserve">raus   </t>
@@ -91,7 +94,7 @@
     <t xml:space="preserve"> darin </t>
   </si>
   <si>
-    <t>Die Deutschen _____ den Müll und denken, welcher Müll in welche Tonne gehört.</t>
+    <t>Die Deutschen  _____ den Müll und denken, welcher Müll in welche Tonne gehört.</t>
   </si>
   <si>
     <t>trennen</t>
@@ -103,7 +106,7 @@
     <t xml:space="preserve">sparen   </t>
   </si>
   <si>
-    <t>Ich nehme einen Espresso und Nik nimmt auch  _____. .</t>
+    <t>Ich nehme einen Espresso und Nik nimmt auch   _____. .</t>
   </si>
   <si>
     <t xml:space="preserve">einen    </t>
@@ -115,7 +118,7 @@
     <t>eine</t>
   </si>
   <si>
-    <t xml:space="preserve"> Wenn  sie das Zimmer online reserviert haben, _____ . </t>
+    <t xml:space="preserve"> Wenn  sie das Zimmer online reserviert haben,  _____ . </t>
   </si>
   <si>
     <t>bekommen Sie eine Bestätigung</t>
@@ -139,7 +142,7 @@
     <t>Kaufe bitte Brot</t>
   </si>
   <si>
-    <t>Tom arbeitet online und bewegt _____ nicht genug.</t>
+    <t>Tom arbeitet online und bewegt  _____ nicht genug.</t>
   </si>
   <si>
     <t xml:space="preserve">sich   </t>
@@ -151,7 +154,7 @@
     <t>sein</t>
   </si>
   <si>
-    <t xml:space="preserve">Wir warten _____ dich draußen. </t>
+    <t xml:space="preserve">Wir warten  _____ dich draußen. </t>
   </si>
   <si>
     <t>auf</t>
@@ -160,7 +163,7 @@
     <t>an</t>
   </si>
   <si>
-    <t>Ich erinnere mich gern an den Urlaub. Und du, erinnerst du dich auch _____ ?</t>
+    <t>Ich erinnere mich gern an den Urlaub. Und du, erinnerst du dich auch  _____ ?</t>
   </si>
   <si>
     <t xml:space="preserve">daran   </t>
@@ -172,7 +175,7 @@
     <t>damit</t>
   </si>
   <si>
-    <t xml:space="preserve">Richtige _____ bedeutet mehr frisches Gemüse essen. </t>
+    <t xml:space="preserve">Richtige  _____ bedeutet mehr frisches Gemüse essen. </t>
   </si>
   <si>
     <t xml:space="preserve">Ernährung   </t>
@@ -184,7 +187,7 @@
     <t>Bewegung</t>
   </si>
   <si>
-    <t>Die beste Note ist _____ .</t>
+    <t>Die beste Note ist  _____ .</t>
   </si>
   <si>
     <t>ausgezeichnet</t>
@@ -196,7 +199,7 @@
     <t xml:space="preserve">ausreichend   </t>
   </si>
   <si>
-    <t>Früher  _____ ich Malerin werden, aber ich  _____ nicht: die Eltern waren dagegen.</t>
+    <t>Früher   _____ ich Malerin werden, aber ich   _____ nicht: die Eltern waren dagegen.</t>
   </si>
   <si>
     <t xml:space="preserve">wollte, durfte    </t>
@@ -208,7 +211,7 @@
     <t>wollte, konnte</t>
   </si>
   <si>
-    <t>_____ ich jetzt am Mittelmeer!</t>
+    <t xml:space="preserve"> _____ ich jetzt am Mittelmeer!</t>
   </si>
   <si>
     <t xml:space="preserve">wäre </t>
@@ -220,7 +223,7 @@
     <t xml:space="preserve">war   </t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn ich 1 Million Euro hätte, _____ ein Haus kaufen. </t>
+    <t xml:space="preserve">Wenn ich 1 Million Euro hätte,  _____ ein Haus kaufen. </t>
   </si>
   <si>
     <t xml:space="preserve">würde   </t>
@@ -232,7 +235,7 @@
     <t>wurde</t>
   </si>
   <si>
-    <t xml:space="preserve">Er soll die Abschlussarbeit schreiben, _____ geht er spazieren. </t>
+    <t xml:space="preserve">Er soll die Abschlussarbeit schreiben,  _____ geht er spazieren. </t>
   </si>
   <si>
     <t xml:space="preserve">trotzdem    </t>
@@ -241,7 +244,7 @@
     <t xml:space="preserve">deshalb  </t>
   </si>
   <si>
-    <t>Ich möchte _____</t>
+    <t>Ich möchte  _____</t>
   </si>
   <si>
     <t>meiner Freundin das Kleid schenken</t>
@@ -253,7 +256,7 @@
     <t>schenken meiner Freundin das Kleid.</t>
   </si>
   <si>
-    <t>Wir kaufen einen _____ Teppich und ein _____ Sofa.</t>
+    <t>Wir kaufen einen  _____ Teppich und ein  _____ Sofa.</t>
   </si>
   <si>
     <t xml:space="preserve">großen, neues   </t>
@@ -265,7 +268,7 @@
     <t>großer, neues</t>
   </si>
   <si>
-    <t xml:space="preserve">Er mag Kino _____ . </t>
+    <t xml:space="preserve">Er mag Kino  _____ . </t>
   </si>
   <si>
     <t xml:space="preserve">am liebsten   </t>
@@ -277,7 +280,7 @@
     <t>am  besten</t>
   </si>
   <si>
-    <t>Der Brief muss heute geschrieben _____ .</t>
+    <t>Der Brief muss heute geschrieben  _____ .</t>
   </si>
   <si>
     <t xml:space="preserve">werden    </t>
@@ -289,7 +292,7 @@
     <t>wird</t>
   </si>
   <si>
-    <t>Die Jacke wird für 25 Euro  _____ .</t>
+    <t>Die Jacke wird für 25 Euro   _____ .</t>
   </si>
   <si>
     <t xml:space="preserve">verkauft    </t>
@@ -301,7 +304,7 @@
     <t>vergekauft</t>
   </si>
   <si>
-    <t xml:space="preserve">Der Platz ist so schön. Ich möchte um ihn _____ gehen. </t>
+    <t xml:space="preserve">Der Platz ist so schön. Ich möchte um ihn  _____ gehen. </t>
   </si>
   <si>
     <t>herum</t>
@@ -313,7 +316,7 @@
     <t>gegenüber</t>
   </si>
   <si>
-    <t xml:space="preserve">Es blitzt und donnert. Es ist so _____ . </t>
+    <t xml:space="preserve">Es blitzt und donnert. Es ist so  _____ . </t>
   </si>
   <si>
     <t xml:space="preserve">gewittrig   </t>
@@ -325,7 +328,7 @@
     <t>eisig</t>
   </si>
   <si>
-    <t xml:space="preserve">Ich möchte _____ und gehe zum Geldautomaten. </t>
+    <t xml:space="preserve">Ich möchte  _____ und gehe zum Geldautomaten. </t>
   </si>
   <si>
     <t>Geld abheben</t>
@@ -337,7 +340,7 @@
     <t xml:space="preserve">Konto eröffnen   </t>
   </si>
   <si>
-    <t xml:space="preserve">Wir renovieren die Wohnung nicht selbst, wir _____ die Wände streichen. </t>
+    <t xml:space="preserve">Wir renovieren die Wohnung nicht selbst, wir  _____ die Wände streichen. </t>
   </si>
   <si>
     <t xml:space="preserve">lassen   </t>
@@ -349,7 +352,7 @@
     <t>wären</t>
   </si>
   <si>
-    <t xml:space="preserve">Daniel fragt, _____ ich kommen kann. </t>
+    <t xml:space="preserve">Daniel fragt,  _____ ich kommen kann. </t>
   </si>
   <si>
     <t>ob</t>
@@ -361,7 +364,7 @@
     <t>dafür</t>
   </si>
   <si>
-    <t>Ich trinke _____ Milch gar nicht. Ich nehme lieber _____ Tee.</t>
+    <t>Ich trinke  _____ Milch gar nicht. Ich nehme lieber  _____ Tee.</t>
   </si>
   <si>
     <t xml:space="preserve">frische, grünen   </t>
@@ -373,7 +376,7 @@
     <t>frisches, grünen</t>
   </si>
   <si>
-    <t>Dieses Kleid kostet _____ als jenes.</t>
+    <t>Dieses Kleid kostet  _____ als jenes.</t>
   </si>
   <si>
     <t xml:space="preserve">mehr   </t>
@@ -383,6 +386,327 @@
   </si>
   <si>
     <t>teurer</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _____ kommst du?</t>
+  </si>
+  <si>
+    <t>Woher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wo </t>
+  </si>
+  <si>
+    <t>Wohin</t>
+  </si>
+  <si>
+    <t>Ich  _____ gern.</t>
+  </si>
+  <si>
+    <t>koche</t>
+  </si>
+  <si>
+    <t>kochst</t>
+  </si>
+  <si>
+    <t>kocht</t>
+  </si>
+  <si>
+    <t>Das ist  _____ Freund Jakob.</t>
+  </si>
+  <si>
+    <t>mein</t>
+  </si>
+  <si>
+    <t>meiner</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>Max fährt  _____ Deutschland.</t>
+  </si>
+  <si>
+    <t>nach</t>
+  </si>
+  <si>
+    <t>zu</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>Maria  _____ meine Tochter.</t>
+  </si>
+  <si>
+    <t>ist</t>
+  </si>
+  <si>
+    <t>bist</t>
+  </si>
+  <si>
+    <t>Paul  _____ gern fern.</t>
+  </si>
+  <si>
+    <t>sieht</t>
+  </si>
+  <si>
+    <t>seht</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _____ wohnen Sie?</t>
+  </si>
+  <si>
+    <t>Wo</t>
+  </si>
+  <si>
+    <t>Was  _____ Sie trinken?</t>
+  </si>
+  <si>
+    <t>möchten</t>
+  </si>
+  <si>
+    <t>möchtest</t>
+  </si>
+  <si>
+    <t>möchte</t>
+  </si>
+  <si>
+    <t>Wie findest du  _____ Schrank?</t>
+  </si>
+  <si>
+    <t>den</t>
+  </si>
+  <si>
+    <t>der</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>Das Haus ist  _____ groß.</t>
+  </si>
+  <si>
+    <t>nicht</t>
+  </si>
+  <si>
+    <t>kein</t>
+  </si>
+  <si>
+    <t>keinen</t>
+  </si>
+  <si>
+    <t>Das ist  _____ Banane.</t>
+  </si>
+  <si>
+    <t>ein</t>
+  </si>
+  <si>
+    <t>Wir brauchen  _____ Schrank.</t>
+  </si>
+  <si>
+    <t>Das Sofa ist hier. - Aber  _____ ist zu teuer!</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>sie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _____? - Der Tisch kostet 120 Euro.</t>
+  </si>
+  <si>
+    <t>Was kostet der Tisch?</t>
+  </si>
+  <si>
+    <t>Wo steht der Tisch?</t>
+  </si>
+  <si>
+    <t>Wie findest du den Tisch?</t>
+  </si>
+  <si>
+    <t>Ich  _____ das Zimmer  _____ .</t>
+  </si>
+  <si>
+    <t>räume, auf</t>
+  </si>
+  <si>
+    <t>aufräume, -</t>
+  </si>
+  <si>
+    <t>raume, auf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _____ Wochenende gehen wir ins Kino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am </t>
+  </si>
+  <si>
+    <t>Um</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>ein Schrank - viele  _____</t>
+  </si>
+  <si>
+    <t>Schränke</t>
+  </si>
+  <si>
+    <t>Schranken</t>
+  </si>
+  <si>
+    <t>Schranke</t>
+  </si>
+  <si>
+    <t>Johann kann  _____ Gitarre  _____ .</t>
+  </si>
+  <si>
+    <t>_, spielen</t>
+  </si>
+  <si>
+    <t>spielen, _</t>
+  </si>
+  <si>
+    <t>_, spielt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _____ bist du von Beruf?</t>
+  </si>
+  <si>
+    <t>Was</t>
+  </si>
+  <si>
+    <t>Wen</t>
+  </si>
+  <si>
+    <t>Kannst du mir  _____?</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>hilft</t>
+  </si>
+  <si>
+    <t>hilfst</t>
+  </si>
+  <si>
+    <t>Nik  _____ den Brief geschrieben.</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>Peter  _____ zur Schule gegangen.</t>
+  </si>
+  <si>
+    <t>Er arbeitet  _____ Mechaniker.</t>
+  </si>
+  <si>
+    <t>als</t>
+  </si>
+  <si>
+    <t xml:space="preserve">der </t>
+  </si>
+  <si>
+    <t>einen</t>
+  </si>
+  <si>
+    <t>Sie ist  _____ .</t>
+  </si>
+  <si>
+    <t>Lehrerin</t>
+  </si>
+  <si>
+    <t>Lehrer</t>
+  </si>
+  <si>
+    <t>Lehrerinnen</t>
+  </si>
+  <si>
+    <t>Das Kleid gefällt  _____ gut.</t>
+  </si>
+  <si>
+    <t>mir</t>
+  </si>
+  <si>
+    <t>ich</t>
+  </si>
+  <si>
+    <t>mich</t>
+  </si>
+  <si>
+    <t>Wir haben den Schrank nicht  _____ .</t>
+  </si>
+  <si>
+    <t>gekauft</t>
+  </si>
+  <si>
+    <t>gekaufen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _____ mir bitte!</t>
+  </si>
+  <si>
+    <t>Hilf</t>
+  </si>
+  <si>
+    <t>Helfen</t>
+  </si>
+  <si>
+    <t>Hilfst</t>
+  </si>
+  <si>
+    <t>Sie hat ein Kleid. Das ist  _____ Kleid.</t>
+  </si>
+  <si>
+    <t>ihr</t>
+  </si>
+  <si>
+    <t>ihres</t>
+  </si>
+  <si>
+    <t>Der Zug  _____ um 9 Uhr  _____ .</t>
+  </si>
+  <si>
+    <t>fährt, ab</t>
+  </si>
+  <si>
+    <t>fahren, ab</t>
+  </si>
+  <si>
+    <t>abfährt, -</t>
+  </si>
+  <si>
+    <t>Am Morgen  _____</t>
+  </si>
+  <si>
+    <t>sieht er gern fern.</t>
+  </si>
+  <si>
+    <t>er sieht fern gern.</t>
+  </si>
+  <si>
+    <t>er sieht gern fern.</t>
   </si>
 </sst>
 </file>
@@ -392,7 +716,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -415,9 +739,15 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="5">
@@ -446,7 +776,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -556,13 +886,50 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,7 +939,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -594,13 +961,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -609,20 +973,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1708,14 +2081,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67.7344" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
     <col min="3" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -1765,11 +2138,11 @@
       <c r="D3" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="E3" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="20.1" customHeight="1">
       <c r="A4" t="s" s="7">
@@ -1787,8 +2160,8 @@
       <c r="E4" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" ht="20.1" customHeight="1">
       <c r="A5" t="s" s="7">
@@ -1806,8 +2179,8 @@
       <c r="E5" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" ht="20.1" customHeight="1">
       <c r="A6" t="s" s="7">
@@ -1823,637 +2196,1270 @@
         <v>21</v>
       </c>
       <c r="E6" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" ht="20.1" customHeight="1">
       <c r="A7" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B7" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="C7" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="E7" t="s" s="9">
+      <c r="D7" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="11"/>
+      <c r="E7" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" ht="20.1" customHeight="1">
       <c r="A8" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="B8" t="s" s="12">
-        <v>26</v>
+      <c r="B8" t="s" s="11">
+        <v>27</v>
       </c>
       <c r="C8" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s" s="9">
         <v>28</v>
       </c>
+      <c r="D8" t="s" s="8">
+        <v>29</v>
+      </c>
       <c r="E8" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" ht="20.1" customHeight="1">
       <c r="A9" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="B9" t="s" s="12">
-        <v>30</v>
+      <c r="B9" t="s" s="11">
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s" s="9">
         <v>32</v>
       </c>
-      <c r="E9" t="s" s="9">
+      <c r="D9" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11"/>
+      <c r="E9" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" ht="20.1" customHeight="1">
       <c r="A10" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="B10" t="s" s="12">
-        <v>34</v>
+      <c r="B10" t="s" s="11">
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" ht="20.1" customHeight="1">
       <c r="A11" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B11" t="s" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" ht="20.1" customHeight="1">
       <c r="A12" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B12" t="s" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s" s="9">
         <v>44</v>
       </c>
-      <c r="E12" t="s" s="9">
+      <c r="D12" t="s" s="8">
         <v>45</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="11"/>
+      <c r="E12" t="s" s="8">
+        <v>46</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" ht="20.1" customHeight="1">
       <c r="A13" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="B13" t="s" s="9">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s" s="9">
+      <c r="B13" t="s" s="8">
         <v>47</v>
       </c>
-      <c r="D13" t="s" s="9">
+      <c r="C13" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="11"/>
+      <c r="D13" t="s" s="8">
+        <v>49</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" ht="20.1" customHeight="1">
       <c r="A14" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B14" t="s" s="8">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s" s="9">
         <v>50</v>
       </c>
-      <c r="D14" t="s" s="9">
+      <c r="C14" t="s" s="8">
         <v>51</v>
       </c>
-      <c r="E14" t="s" s="9">
+      <c r="D14" t="s" s="8">
         <v>52</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="11"/>
+      <c r="E14" t="s" s="8">
+        <v>53</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" ht="20.1" customHeight="1">
       <c r="A15" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B15" t="s" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s" s="8">
-        <v>56</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" ht="20.1" customHeight="1">
       <c r="A16" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B16" t="s" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" ht="20.1" customHeight="1">
       <c r="A17" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B17" t="s" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s" s="8">
-        <v>64</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" ht="20.1" customHeight="1">
       <c r="A18" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B18" t="s" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" ht="20.1" customHeight="1">
       <c r="A19" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B19" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s" s="8">
-        <v>72</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" ht="20.1" customHeight="1">
       <c r="A20" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B20" t="s" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" ht="20.1" customHeight="1">
       <c r="A21" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B21" t="s" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s" s="8">
-        <v>79</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" ht="20.1" customHeight="1">
       <c r="A22" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B22" t="s" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s" s="8">
-        <v>83</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" ht="20.1" customHeight="1">
       <c r="A23" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B23" t="s" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s" s="8">
-        <v>87</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" ht="20.1" customHeight="1">
       <c r="A24" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B24" t="s" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s" s="8">
-        <v>91</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="11"/>
+        <v>92</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" ht="20.1" customHeight="1">
       <c r="A25" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B25" t="s" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s" s="8">
-        <v>95</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" ht="20.1" customHeight="1">
       <c r="A26" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B26" t="s" s="8">
-        <v>96</v>
-      </c>
-      <c r="C26" t="s" s="9">
         <v>97</v>
       </c>
+      <c r="C26" t="s" s="8">
+        <v>98</v>
+      </c>
       <c r="D26" t="s" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s" s="8">
-        <v>99</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" ht="20.1" customHeight="1">
       <c r="A27" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B27" t="s" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s" s="8">
-        <v>103</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" ht="20.1" customHeight="1">
       <c r="A28" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B28" t="s" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s" s="8">
-        <v>107</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="11"/>
+        <v>108</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" ht="20.1" customHeight="1">
       <c r="A29" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B29" t="s" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s" s="8">
-        <v>111</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="11"/>
+        <v>112</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" ht="20.1" customHeight="1">
       <c r="A30" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B30" t="s" s="8">
-        <v>112</v>
-      </c>
-      <c r="C30" t="s" s="9">
         <v>113</v>
       </c>
+      <c r="C30" t="s" s="8">
+        <v>114</v>
+      </c>
       <c r="D30" t="s" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s" s="8">
-        <v>115</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="11"/>
+        <v>116</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" ht="20.1" customHeight="1">
       <c r="A31" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B31" t="s" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s" s="8">
-        <v>119</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="11"/>
+        <v>120</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" ht="20.1" customHeight="1">
       <c r="A32" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B32" t="s" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="11"/>
+        <v>124</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" ht="20.1" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="11"/>
+      <c r="A33" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s" s="11">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s" s="8">
+        <v>127</v>
+      </c>
+      <c r="D33" t="s" s="8">
+        <v>128</v>
+      </c>
+      <c r="E33" t="s" s="8">
+        <v>129</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" ht="20.1" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="11"/>
+      <c r="A34" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s" s="11">
+        <v>130</v>
+      </c>
+      <c r="C34" t="s" s="8">
+        <v>131</v>
+      </c>
+      <c r="D34" t="s" s="8">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s" s="8">
+        <v>133</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" ht="20.1" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="11"/>
+      <c r="A35" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s" s="8">
+        <v>134</v>
+      </c>
+      <c r="C35" t="s" s="8">
+        <v>135</v>
+      </c>
+      <c r="D35" t="s" s="8">
+        <v>136</v>
+      </c>
+      <c r="E35" t="s" s="8">
+        <v>137</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" ht="20.1" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="11"/>
+      <c r="A36" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s" s="11">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s" s="8">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s" s="8">
+        <v>140</v>
+      </c>
+      <c r="E36" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="14"/>
     </row>
     <row r="37" ht="20.1" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="11"/>
+      <c r="A37" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s" s="11">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s" s="8">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s" s="8">
+        <v>144</v>
+      </c>
+      <c r="E37" t="s" s="8">
+        <v>46</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" ht="20.1" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="11"/>
+      <c r="A38" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s" s="11">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s" s="8">
+        <v>146</v>
+      </c>
+      <c r="D38" t="s" s="8">
+        <v>147</v>
+      </c>
+      <c r="E38" t="s" s="8">
+        <v>148</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" ht="20.1" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="11"/>
+      <c r="A39" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s" s="11">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s" s="8">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s" s="8">
+        <v>129</v>
+      </c>
+      <c r="E39" t="s" s="8">
+        <v>127</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" ht="20.1" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="11"/>
+      <c r="A40" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B40" t="s" s="11">
+        <v>151</v>
+      </c>
+      <c r="C40" t="s" s="8">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s" s="8">
+        <v>153</v>
+      </c>
+      <c r="E40" t="s" s="8">
+        <v>154</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="14"/>
     </row>
     <row r="41" ht="20.1" customHeight="1">
-      <c r="A41" s="15"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="11"/>
+      <c r="A41" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s" s="11">
+        <v>155</v>
+      </c>
+      <c r="C41" t="s" s="8">
+        <v>156</v>
+      </c>
+      <c r="D41" t="s" s="8">
+        <v>157</v>
+      </c>
+      <c r="E41" t="s" s="8">
+        <v>158</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" ht="20.1" customHeight="1">
-      <c r="A42" s="15"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="11"/>
+      <c r="A42" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s" s="11">
+        <v>159</v>
+      </c>
+      <c r="C42" t="s" s="8">
+        <v>160</v>
+      </c>
+      <c r="D42" t="s" s="8">
+        <v>161</v>
+      </c>
+      <c r="E42" t="s" s="8">
+        <v>162</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="14"/>
     </row>
     <row r="43" ht="20.1" customHeight="1">
-      <c r="A43" s="15"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="11"/>
+      <c r="A43" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s" s="11">
+        <v>163</v>
+      </c>
+      <c r="C43" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s" s="8">
+        <v>164</v>
+      </c>
+      <c r="E43" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="14"/>
     </row>
     <row r="44" ht="20.1" customHeight="1">
-      <c r="A44" s="15"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="11"/>
+      <c r="A44" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s" s="11">
+        <v>165</v>
+      </c>
+      <c r="C44" t="s" s="8">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s" s="8">
+        <v>160</v>
+      </c>
+      <c r="E44" t="s" s="8">
+        <v>161</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="14"/>
     </row>
     <row r="45" ht="20.1" customHeight="1">
-      <c r="A45" s="15"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="11"/>
+      <c r="A45" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s" s="11">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s" s="8">
+        <v>167</v>
+      </c>
+      <c r="D45" t="s" s="8">
+        <v>168</v>
+      </c>
+      <c r="E45" t="s" s="8">
+        <v>169</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="14"/>
     </row>
     <row r="46" ht="20.1" customHeight="1">
-      <c r="A46" s="15"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" ht="19.9" customHeight="1">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="16"/>
+      <c r="A46" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B46" t="s" s="11">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s" s="11">
+        <v>171</v>
+      </c>
+      <c r="D46" t="s" s="8">
+        <v>172</v>
+      </c>
+      <c r="E46" t="s" s="8">
+        <v>173</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" ht="20.1" customHeight="1">
+      <c r="A47" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s" s="11">
+        <v>174</v>
+      </c>
+      <c r="C47" t="s" s="11">
+        <v>175</v>
+      </c>
+      <c r="D47" t="s" s="11">
+        <v>176</v>
+      </c>
+      <c r="E47" t="s" s="11">
+        <v>177</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" ht="20.1" customHeight="1">
+      <c r="A48" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="B48" t="s" s="11">
+        <v>178</v>
+      </c>
+      <c r="C48" t="s" s="8">
+        <v>179</v>
+      </c>
+      <c r="D48" t="s" s="8">
+        <v>180</v>
+      </c>
+      <c r="E48" t="s" s="8">
+        <v>181</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" ht="20.1" customHeight="1">
+      <c r="A49" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="B49" t="s" s="11">
+        <v>182</v>
+      </c>
+      <c r="C49" t="s" s="11">
+        <v>183</v>
+      </c>
+      <c r="D49" t="s" s="8">
+        <v>184</v>
+      </c>
+      <c r="E49" t="s" s="8">
+        <v>185</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" ht="20.1" customHeight="1">
+      <c r="A50" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="B50" t="s" s="11">
+        <v>186</v>
+      </c>
+      <c r="C50" t="s" s="8">
+        <v>187</v>
+      </c>
+      <c r="D50" t="s" s="8">
+        <v>188</v>
+      </c>
+      <c r="E50" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" ht="20.1" customHeight="1">
+      <c r="A51" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="B51" t="s" s="11">
+        <v>190</v>
+      </c>
+      <c r="C51" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="D51" t="s" s="8">
+        <v>150</v>
+      </c>
+      <c r="E51" t="s" s="8">
+        <v>192</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" ht="20.1" customHeight="1">
+      <c r="A52" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s" s="11">
+        <v>193</v>
+      </c>
+      <c r="C52" t="s" s="8">
+        <v>194</v>
+      </c>
+      <c r="D52" t="s" s="8">
+        <v>195</v>
+      </c>
+      <c r="E52" t="s" s="8">
+        <v>196</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" ht="20.1" customHeight="1">
+      <c r="A53" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="B53" t="s" s="11">
+        <v>197</v>
+      </c>
+      <c r="C53" t="s" s="8">
+        <v>198</v>
+      </c>
+      <c r="D53" t="s" s="8">
+        <v>199</v>
+      </c>
+      <c r="E53" t="s" s="8">
+        <v>143</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" ht="20.1" customHeight="1">
+      <c r="A54" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="B54" t="s" s="11">
+        <v>200</v>
+      </c>
+      <c r="C54" t="s" s="8">
+        <v>143</v>
+      </c>
+      <c r="D54" t="s" s="8">
+        <v>198</v>
+      </c>
+      <c r="E54" t="s" s="8">
+        <v>46</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" ht="20.1" customHeight="1">
+      <c r="A55" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="B55" t="s" s="11">
+        <v>201</v>
+      </c>
+      <c r="C55" t="s" s="8">
+        <v>202</v>
+      </c>
+      <c r="D55" t="s" s="8">
+        <v>203</v>
+      </c>
+      <c r="E55" t="s" s="8">
+        <v>204</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" ht="20.1" customHeight="1">
+      <c r="A56" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="B56" t="s" s="11">
+        <v>205</v>
+      </c>
+      <c r="C56" t="s" s="8">
+        <v>206</v>
+      </c>
+      <c r="D56" t="s" s="8">
+        <v>207</v>
+      </c>
+      <c r="E56" t="s" s="8">
+        <v>208</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" ht="20.1" customHeight="1">
+      <c r="A57" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s" s="16">
+        <v>209</v>
+      </c>
+      <c r="C57" t="s" s="8">
+        <v>210</v>
+      </c>
+      <c r="D57" t="s" s="8">
+        <v>211</v>
+      </c>
+      <c r="E57" t="s" s="8">
+        <v>212</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" ht="20.1" customHeight="1">
+      <c r="A58" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="B58" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="C58" t="s" s="8">
+        <v>214</v>
+      </c>
+      <c r="D58" t="s" s="8">
+        <v>215</v>
+      </c>
+      <c r="E58" t="s" s="8">
+        <v>216</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" ht="20.1" customHeight="1">
+      <c r="A59" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="B59" t="s" s="18">
+        <v>217</v>
+      </c>
+      <c r="C59" t="s" s="8">
+        <v>218</v>
+      </c>
+      <c r="D59" t="s" s="8">
+        <v>219</v>
+      </c>
+      <c r="E59" t="s" s="8">
+        <v>220</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" ht="20.1" customHeight="1">
+      <c r="A60" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s" s="8">
+        <v>221</v>
+      </c>
+      <c r="C60" t="s" s="8">
+        <v>222</v>
+      </c>
+      <c r="D60" t="s" s="8">
+        <v>46</v>
+      </c>
+      <c r="E60" t="s" s="8">
+        <v>223</v>
+      </c>
+      <c r="F60" s="12"/>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" ht="20.1" customHeight="1">
+      <c r="A61" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s" s="8">
+        <v>224</v>
+      </c>
+      <c r="C61" t="s" s="8">
+        <v>225</v>
+      </c>
+      <c r="D61" t="s" s="8">
+        <v>226</v>
+      </c>
+      <c r="E61" t="s" s="8">
+        <v>227</v>
+      </c>
+      <c r="F61" s="12"/>
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" ht="20.1" customHeight="1">
+      <c r="A62" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s" s="8">
+        <v>228</v>
+      </c>
+      <c r="C62" t="s" s="8">
+        <v>229</v>
+      </c>
+      <c r="D62" t="s" s="8">
+        <v>230</v>
+      </c>
+      <c r="E62" t="s" s="8">
+        <v>231</v>
+      </c>
+      <c r="F62" s="12"/>
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" ht="20.1" customHeight="1">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" ht="20.1" customHeight="1">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" ht="19.9" customHeight="1">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" ht="19.9" customHeight="1">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" ht="19.9" customHeight="1">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" ht="19.9" customHeight="1">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" ht="19.9" customHeight="1">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" ht="19.9" customHeight="1">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" ht="19.9" customHeight="1">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" ht="19.9" customHeight="1">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" ht="19.9" customHeight="1">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" ht="19.9" customHeight="1">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" ht="19.9" customHeight="1">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" ht="19.9" customHeight="1">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" ht="19.9" customHeight="1">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" ht="19.9" customHeight="1">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" ht="19.9" customHeight="1">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+    </row>
+    <row r="80" ht="19.9" customHeight="1">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" ht="19.9" customHeight="1">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+    </row>
+    <row r="82" ht="19.9" customHeight="1">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+    </row>
+    <row r="83" ht="19.9" customHeight="1">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+    </row>
+    <row r="84" ht="19.9" customHeight="1">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
